--- a/biology/Zoologie/Capitonidae/Capitonidae.xlsx
+++ b/biology/Zoologie/Capitonidae/Capitonidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Capitonidae (ou capitonidés en français) sont une famille d'oiseaux sud-américains comprenant deux genres et quatorze d'espèces nommées cabézons.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa classification version 2.6 (2010), le COI suit les recommandations de l'American Ornithologists' Union[1] (AOU) et sépare les cabézons du groupe des toucans (les Ramphastidae). Les espèces du genre Semnornis forment désormais la famille des Semnornithidae, et les genres Eubucco et Capito forment les Capitonidae. Ces modifications s'appuient sur les travaux et études génétiques de Barker &amp; Lanyon[2] (2000) et de Moyle[3] (2004).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa classification version 2.6 (2010), le COI suit les recommandations de l'American Ornithologists' Union (AOU) et sépare les cabézons du groupe des toucans (les Ramphastidae). Les espèces du genre Semnornis forment désormais la famille des Semnornithidae, et les genres Eubucco et Capito forment les Capitonidae. Ces modifications s'appuient sur les travaux et études génétiques de Barker &amp; Lanyon (2000) et de Moyle (2004).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Capito Vieillot, 1816
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Capito aurovirens – Cabézon oranvert
